--- a/Chinese_Medicine/CM_Ref/伤寒杂病论/伤寒杂病论-病脉证-方剂-Axiom-Bulk-Create.xlsx
+++ b/Chinese_Medicine/CM_Ref/伤寒杂病论/伤寒杂病论-病脉证-方剂-Axiom-Bulk-Create.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Chinese_Culture\Chinese_Medicine\CM_Ref\伤寒杂病论\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B30C34-6C9F-46C3-BF5E-B54BDF30689A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC43C9D-AE53-481C-A8B1-A6EAFF321AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="768" firstSheet="8" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="病脉证001" sheetId="2" r:id="rId1"/>
-    <sheet name="方剂set1" sheetId="3" r:id="rId2"/>
-    <sheet name="病脉证set1" sheetId="1" r:id="rId3"/>
+    <sheet name="病脉证set1" sheetId="1" r:id="rId2"/>
+    <sheet name="方剂set1" sheetId="3" r:id="rId3"/>
     <sheet name="病脉证set2" sheetId="6" r:id="rId4"/>
     <sheet name="方剂set2" sheetId="7" r:id="rId5"/>
     <sheet name="病脉证set3" sheetId="8" r:id="rId6"/>
@@ -28,7 +28,13 @@
     <sheet name="方剂set6" sheetId="15" r:id="rId13"/>
     <sheet name="病脉证set7" sheetId="16" r:id="rId14"/>
     <sheet name="方剂set7" sheetId="17" r:id="rId15"/>
-    <sheet name="方剂set1 (2)" sheetId="5" r:id="rId16"/>
+    <sheet name="病脉证set8" sheetId="18" r:id="rId16"/>
+    <sheet name="方剂set8" sheetId="19" r:id="rId17"/>
+    <sheet name="病脉证set9" sheetId="20" r:id="rId18"/>
+    <sheet name="方剂set9" sheetId="21" r:id="rId19"/>
+    <sheet name="病脉证set10" sheetId="22" r:id="rId20"/>
+    <sheet name="方剂set10" sheetId="23" r:id="rId21"/>
+    <sheet name="方剂set1 (2)" sheetId="5" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="1049">
   <si>
     <t>Individual</t>
   </si>
@@ -335,9 +341,6 @@
     <t>FJ0012</t>
   </si>
   <si>
-    <t>FJ0013</t>
-  </si>
-  <si>
     <t>FJ0014</t>
   </si>
   <si>
@@ -2526,13 +2529,685 @@
   </si>
   <si>
     <t>黄连阿胶汤</t>
+  </si>
+  <si>
+    <t>少阴病，得之一二日，口中和，其背恶寒者，当灸之，附子汤主之。</t>
+  </si>
+  <si>
+    <t>附子汤</t>
+  </si>
+  <si>
+    <t>少阴病，身体痛，手足寒，骨节痛，脉沉者，附子汤主之。</t>
+  </si>
+  <si>
+    <t>少阴病，下利，便脓血者，桃花汤主之。</t>
+  </si>
+  <si>
+    <t>桃花汤</t>
+  </si>
+  <si>
+    <t>少阴病二三日至四五日，腹痛，小便不利，下利不止，便脓血者，桃花汤主之。</t>
+  </si>
+  <si>
+    <t>少阴病，下利便脓血者，可刺。</t>
+  </si>
+  <si>
+    <t>少阴病，吐利，手足逆冷，烦躁欲死者，吴茱萸汤主之。</t>
+  </si>
+  <si>
+    <t>猪肤汤</t>
+  </si>
+  <si>
+    <t>少阴病，下利，咽痛，胸满，心烦，猪肤汤主之。</t>
+  </si>
+  <si>
+    <t>少阴病二三日，咽痛者，可与甘草汤。不差，与桔梗汤。</t>
+  </si>
+  <si>
+    <t>甘草汤</t>
+  </si>
+  <si>
+    <t>桔梗汤</t>
+  </si>
+  <si>
+    <t>少阴病，咽中伤，生疮，不能语言，声不出者，苦酒汤主之。</t>
+  </si>
+  <si>
+    <t>BMZ00312</t>
+  </si>
+  <si>
+    <t>BMZ00313</t>
+  </si>
+  <si>
+    <t>BMZ00314</t>
+  </si>
+  <si>
+    <t>BMZ00315</t>
+  </si>
+  <si>
+    <t>BMZ00316</t>
+  </si>
+  <si>
+    <t>BMZ00317</t>
+  </si>
+  <si>
+    <t>BMZ00318</t>
+  </si>
+  <si>
+    <t>BMZ00319</t>
+  </si>
+  <si>
+    <t>BMZ00320</t>
+  </si>
+  <si>
+    <t>BMZ00321</t>
+  </si>
+  <si>
+    <t>BMZ00322</t>
+  </si>
+  <si>
+    <t>BMZ00323</t>
+  </si>
+  <si>
+    <t>BMZ00324</t>
+  </si>
+  <si>
+    <t>BMZ00325</t>
+  </si>
+  <si>
+    <t>BMZ00326</t>
+  </si>
+  <si>
+    <t>BMZ00327</t>
+  </si>
+  <si>
+    <t>BMZ00328</t>
+  </si>
+  <si>
+    <t>BMZ00329</t>
+  </si>
+  <si>
+    <t>BMZ00330</t>
+  </si>
+  <si>
+    <t>BMZ00331</t>
+  </si>
+  <si>
+    <t>BMZ00332</t>
+  </si>
+  <si>
+    <t>BMZ00333</t>
+  </si>
+  <si>
+    <t>BMZ00334</t>
+  </si>
+  <si>
+    <t>BMZ00335</t>
+  </si>
+  <si>
+    <t>BMZ00336</t>
+  </si>
+  <si>
+    <t>BMZ00337</t>
+  </si>
+  <si>
+    <t>苦酒汤</t>
+  </si>
+  <si>
+    <t>少阴病，咽中痛，半夏散及汤主之。</t>
+  </si>
+  <si>
+    <t>半夏散及汤</t>
+  </si>
+  <si>
+    <t>少阴病，下利，白通汤主之。</t>
+  </si>
+  <si>
+    <t>白诵汤</t>
+  </si>
+  <si>
+    <t>少阴病，下利，脉微者，与白通汤。利不止，厥逆无脉，干呕，烦者，白通加猪胆汁汤主之。服汤，脉暴出者，死；微续者，生。</t>
+  </si>
+  <si>
+    <t>白通加猪胆汁汤</t>
+  </si>
+  <si>
+    <t>少阴病，二三日不已，至四五日，腹痛，小便不利，四肢沉重，疼痛，自下利者，此为有水气。其人或咳，或小便利，或下利，或呕者，真武汤主之。</t>
+  </si>
+  <si>
+    <t>少阴病，下利清谷，里寒外热，手足厥逆，脉微欲绝，身反不恶寒，其人面色赤，或腹痛，或干呕，或咽痛，或利止脉不出者，通脉四逆汤主之。</t>
+  </si>
+  <si>
+    <t>通脉四逆汤</t>
+  </si>
+  <si>
+    <t>少阴病，四逆，其人或咳，或悸，或小便不利，或腹中痛，或泄利下重者，四逆散主之。</t>
+  </si>
+  <si>
+    <t>四逆散</t>
+  </si>
+  <si>
+    <t>少阴病，下利六七日，咳而呕渴，心烦不得眠者，猪苓汤主之。</t>
+  </si>
+  <si>
+    <t>少阴病，得之二三日，口燥，咽干者，急下之，宜大承气汤。</t>
+  </si>
+  <si>
+    <t>少阴病，自利清水，色纯青，心下必痛，口干燥者，可下之，宜大承气汤。</t>
+  </si>
+  <si>
+    <t>少阴病六七日，腹胀，不大便者，急下之，宜大承气汤。</t>
+  </si>
+  <si>
+    <t>少阴病，脉沉者，急温之，宜四逆汤。</t>
+  </si>
+  <si>
+    <t>FJ00103</t>
+  </si>
+  <si>
+    <t>FJ00104</t>
+  </si>
+  <si>
+    <t>FJ00105</t>
+  </si>
+  <si>
+    <t>FJ00106</t>
+  </si>
+  <si>
+    <t>FJ00107</t>
+  </si>
+  <si>
+    <t>FJ00108</t>
+  </si>
+  <si>
+    <t>FJ00109</t>
+  </si>
+  <si>
+    <t>FJ00110</t>
+  </si>
+  <si>
+    <t>FJ00111</t>
+  </si>
+  <si>
+    <t>少阴病，饮食入口则吐，心中温温欲吐，复不能吐。始得之，手足寒，脉弦迟者，此胸中实，不可下也，当吐之。若膈上有寒饮，干呕者，不可吐也，当温之，宜四逆汤。</t>
+  </si>
+  <si>
+    <t>少阴病，下利，脉微涩，呕而汗出，必数更衣，反少者，当温其上，灸之。</t>
+  </si>
+  <si>
+    <t>Updated 2024/04/07</t>
+  </si>
+  <si>
+    <t>辨厥阴病脉证并治</t>
+  </si>
+  <si>
+    <t>BMZ00338</t>
+  </si>
+  <si>
+    <t>BMZ00339</t>
+  </si>
+  <si>
+    <t>BMZ00340</t>
+  </si>
+  <si>
+    <t>BMZ00341</t>
+  </si>
+  <si>
+    <t>BMZ00342</t>
+  </si>
+  <si>
+    <t>BMZ00343</t>
+  </si>
+  <si>
+    <t>BMZ00344</t>
+  </si>
+  <si>
+    <t>BMZ00345</t>
+  </si>
+  <si>
+    <t>BMZ00346</t>
+  </si>
+  <si>
+    <t>BMZ00347</t>
+  </si>
+  <si>
+    <t>BMZ00348</t>
+  </si>
+  <si>
+    <t>BMZ00349</t>
+  </si>
+  <si>
+    <t>BMZ00350</t>
+  </si>
+  <si>
+    <t>BMZ00351</t>
+  </si>
+  <si>
+    <t>BMZ00352</t>
+  </si>
+  <si>
+    <t>BMZ00353</t>
+  </si>
+  <si>
+    <t>BMZ00354</t>
+  </si>
+  <si>
+    <t>BMZ00355</t>
+  </si>
+  <si>
+    <t>BMZ00356</t>
+  </si>
+  <si>
+    <t>BMZ00357</t>
+  </si>
+  <si>
+    <t>BMZ00358</t>
+  </si>
+  <si>
+    <t>BMZ00359</t>
+  </si>
+  <si>
+    <t>BMZ00360</t>
+  </si>
+  <si>
+    <t>BMZ00361</t>
+  </si>
+  <si>
+    <t>BMZ00362</t>
+  </si>
+  <si>
+    <t>BMZ00363</t>
+  </si>
+  <si>
+    <t>BMZ00364</t>
+  </si>
+  <si>
+    <t>BMZ00365</t>
+  </si>
+  <si>
+    <t>BMZ00366</t>
+  </si>
+  <si>
+    <t>BMZ00367</t>
+  </si>
+  <si>
+    <t>BMZ00368</t>
+  </si>
+  <si>
+    <t>BMZ00369</t>
+  </si>
+  <si>
+    <t>BMZ00370</t>
+  </si>
+  <si>
+    <t>FJ00112</t>
+  </si>
+  <si>
+    <t>FJ00113</t>
+  </si>
+  <si>
+    <t>FJ00114</t>
+  </si>
+  <si>
+    <t>FJ00115</t>
+  </si>
+  <si>
+    <t>FJ00116</t>
+  </si>
+  <si>
+    <t>厥阴之为病，消渴，气上撞心，心中疼热，饥而不欲食，食则吐蛔。下之，利不止。</t>
+  </si>
+  <si>
+    <t>厥阴中风，脉微浮，为欲愈，不浮，为未愈。</t>
+  </si>
+  <si>
+    <t>厥阴病，欲解时，从丑至卯上。</t>
+  </si>
+  <si>
+    <t>厥阴病，渴欲饮水者，少少与之愈。</t>
+  </si>
+  <si>
+    <t>诸四逆厥者，不可下之，虚家亦然。</t>
+  </si>
+  <si>
+    <t>伤寒，先厥后发热，而利者必自止，见厥复利。</t>
+  </si>
+  <si>
+    <t>伤寒，始发热六日，厥反九日而利。凡厥利者，当不能食；今反能食者，恐为除中。食以索饼，不发热者，知胃气尚在，必愈。恐暴热来出而复去也。后日脉之，其热续在者，期之旦日夜半愈。所以然者，本发热六日，厥反九日，复发热三日，并前六日，亦为九日，与厥相应，故期之旦日夜半愈。后三日脉之而脉数，其热不罢者，此为热气有余，必发痈脓也。</t>
+  </si>
+  <si>
+    <t>伤寒，脉迟六七日，而反与黄芩汤彻其热。脉迟为寒，今与黄芩汤，复除其热，腹中应冷，当不能食，今反能食，此名除中，必死。</t>
+  </si>
+  <si>
+    <t>伤寒，先厥后发热，下利必自止。而反汗出，咽中痛者，其喉为痹。发热无汗，而利必自止；若不止，必便脓血。便脓血者，其喉不痹。</t>
+  </si>
+  <si>
+    <t>伤寒一二日至四五日，厥者必发热。前热者后必厥。厥深者，热亦深；厥微者，热亦微。厥应下之，而反发汗者，必口伤烂赤。</t>
+  </si>
+  <si>
+    <t>伤寒，病厥五日，热亦五日。设六日当复厥，不厥者，自愈。厥终不过五日，以热五日，故知自愈。</t>
+  </si>
+  <si>
+    <t>凡厥者，阴阳气不相顺接，便为厥。厥者，手足逆冷者是也。</t>
+  </si>
+  <si>
+    <t>伤寒，脉微而厥，至七八日肤冷，其人躁无暂安时者，此为脏厥，非蛔厥也。蛔厥者，其人当吐蛔。今病者静，而复时烦者，此为脏寒。蛔上入其膈，故烦，须臾复止；得食而呕，又烦者，蛔闻食臭出，其人常自吐蛔。蛔厥者，乌梅丸主之。又主久利。</t>
+  </si>
+  <si>
+    <t>乌梅丸</t>
+  </si>
+  <si>
+    <t>伤寒，热少微厥，指头寒，嘿嘿不欲食，烦躁。数日，小便利，色白者，此热除也。欲得食，其病为愈；若厥而呕，胸胁烦满者，其后必便血。</t>
+  </si>
+  <si>
+    <t>病者手足厥冷，言我不结胸，小腹满，按之痛者，此冷结在膀胱关元也。</t>
+  </si>
+  <si>
+    <t>伤寒，发热四日，厥反三日，复热四日，厥少热多者，其病当愈。四日至七日，热不除者，必便脓血。</t>
+  </si>
+  <si>
+    <t>伤寒，厥四日，热反三日，复厥五日，其病为进。寒多热少，阳气退，故为进也。</t>
+  </si>
+  <si>
+    <t>伤寒六七日，脉微，手足厥冷，烦躁，灸厥阴，厥不还者，死。</t>
+  </si>
+  <si>
+    <t>伤寒，发热，下利，厥逆，躁不得卧者，死。</t>
+  </si>
+  <si>
+    <t>伤寒，发热，下利至甚，厥不止者，死。</t>
+  </si>
+  <si>
+    <t>伤寒六七日，不利，便发热而利，其人汗出不止者，死。有阴无阳故也。</t>
+  </si>
+  <si>
+    <t>伤寒五六日，不结胸，腹濡，脉虚，复厥者，不可下，此亡血，下之死</t>
+  </si>
+  <si>
+    <t>发热而厥，七日下利者，为难治。</t>
+  </si>
+  <si>
+    <t>伤寒，脉促，手足厥逆，可灸之。</t>
+  </si>
+  <si>
+    <t>伤寒，脉滑而厥者，里有热，白虎汤主之。</t>
+  </si>
+  <si>
+    <t>手足厥寒，脉细欲绝者，当归四逆汤主之。</t>
+  </si>
+  <si>
+    <t>当归四逆汤</t>
+  </si>
+  <si>
+    <t>若其人内有久寒者，宜当归四逆加吴茱萸生姜汤。</t>
+  </si>
+  <si>
+    <t>当归四逆加吴茱萸生姜汤</t>
+  </si>
+  <si>
+    <t>大汗出，热不去，内拘急，四肢疼，又下利厥逆而恶寒者，四逆汤主之。</t>
+  </si>
+  <si>
+    <t>大汗，若大下利而厥冷者，四逆汤主之。</t>
+  </si>
+  <si>
+    <t>病人手足厥冷，脉乍紧者，邪结在胸中，心下满而烦，饥不能食者，病在胸中，当须吐之，宜瓜蒂散。</t>
+  </si>
+  <si>
+    <t>伤寒，厥而心下悸，宜先治水，当服茯苓甘草汤，却治其厥。不尔，水渍入胃，必作利也。</t>
+  </si>
+  <si>
+    <t>伤寒六七日，大下后，寸脉沉而迟，手足厥逆，下部脉不至，喉咽不利，唾脓血，泄利不止者，为难治，麻黄升麻汤主之。</t>
+  </si>
+  <si>
+    <t>麻黄升麻汤</t>
+  </si>
+  <si>
+    <t>伤寒四五日，腹中痛，若转气下趣少腹者，此欲自利也。</t>
+  </si>
+  <si>
+    <t>伤寒，本自寒下，医复吐下之，寒格，更逆吐下，若食入口即吐，干姜黄芩黄连人参汤主之。</t>
+  </si>
+  <si>
+    <t>干姜黄芩黄连人参汤</t>
+  </si>
+  <si>
+    <t>下利，有微热而渴，脉弱者，今自愈。</t>
+  </si>
+  <si>
+    <t>下利，脉数，有微热汗出，今自愈。设复紧，为未解。</t>
+  </si>
+  <si>
+    <t>下利，手足厥冷，无脉者，灸之不温，若脉不还，反微喘者，死。少阴负跌阳者，为顺也。</t>
+  </si>
+  <si>
+    <t>下利，寸脉反浮数，尺中自涩者，必清脓血。</t>
+  </si>
+  <si>
+    <t>下利清谷，不可攻表，汗出必胀满。</t>
+  </si>
+  <si>
+    <t>下利，脉沉弦者，下重也；脉大者，为未止；脉微弱数者，为欲自止，虽发热，不死。</t>
+  </si>
+  <si>
+    <t>下利，脉沉而迟，其人面少赤，身有微热，下利清谷者，必郁冒，汗出而解，病人必微厥。所以然者，其面戴阳，下虚故也。</t>
+  </si>
+  <si>
+    <t>下利，脉数而渴者，今自愈。设不差，必清脓血，以有热故也。</t>
+  </si>
+  <si>
+    <t>下利后，脉绝，手足厥冷，晬时脉还，手足温者，生；脉不还者，死。</t>
+  </si>
+  <si>
+    <t>伤寒，下利，日十余行，脉反实者，死。</t>
+  </si>
+  <si>
+    <t>下利清谷，里寒外热，汗出而厥者，通脉四逆汤主之。</t>
+  </si>
+  <si>
+    <t>热利下重者，白头翁汤主之。</t>
+  </si>
+  <si>
+    <t>BMZ00371</t>
+  </si>
+  <si>
+    <t>BMZ00372</t>
+  </si>
+  <si>
+    <t>BMZ00373</t>
+  </si>
+  <si>
+    <t>BMZ00374</t>
+  </si>
+  <si>
+    <t>白头翁汤</t>
+  </si>
+  <si>
+    <t>下利，腹胀满，身体疼痛者，先温其里，乃攻其表，温里宜四逆汤，攻表宜桂枝汤。</t>
+  </si>
+  <si>
+    <t>下利，欲饮水者，以有热故也，白头翁汤主之。</t>
+  </si>
+  <si>
+    <t>下利，谵语者，有燥屎也，宜小承气汤。</t>
+  </si>
+  <si>
+    <t>下利后，更烦，按之心下濡者，为虚烦也，宜栀子豉汤。</t>
+  </si>
+  <si>
+    <t>呕家，有痈脓者，不可治呕，脓尽自愈。</t>
+  </si>
+  <si>
+    <t>呕而脉弱，小便复利，身有微热，见厥者难治，四逆汤主之。</t>
+  </si>
+  <si>
+    <t>干呕，吐涎沫，头痛者，吴茱萸汤主之。</t>
+  </si>
+  <si>
+    <t>呕而发热者，小柴胡汤主之。</t>
+  </si>
+  <si>
+    <t>伤寒，大吐、大下之，极虚，复极汗者，其人外气佛郁，复与之水，以发其汗，因得哕，所以然者，胃中寒冷故也。</t>
+  </si>
+  <si>
+    <t>伤寒，哕而腹满，视其前后，知何部不利，利之即愈。</t>
+  </si>
+  <si>
+    <t>BMZ00375</t>
+  </si>
+  <si>
+    <t>BMZ00376</t>
+  </si>
+  <si>
+    <t>BMZ00377</t>
+  </si>
+  <si>
+    <t>BMZ00378</t>
+  </si>
+  <si>
+    <t>BMZ00379</t>
+  </si>
+  <si>
+    <t>BMZ00380</t>
+  </si>
+  <si>
+    <t>BMZ00381</t>
+  </si>
+  <si>
+    <t>辨霍乱病脉证并治</t>
+  </si>
+  <si>
+    <t>BMZ00382</t>
+  </si>
+  <si>
+    <t>BMZ00383</t>
+  </si>
+  <si>
+    <t>BMZ00384</t>
+  </si>
+  <si>
+    <t>BMZ00385</t>
+  </si>
+  <si>
+    <t>BMZ00386</t>
+  </si>
+  <si>
+    <t>BMZ00387</t>
+  </si>
+  <si>
+    <t>BMZ00388</t>
+  </si>
+  <si>
+    <t>BMZ00389</t>
+  </si>
+  <si>
+    <t>BMZ00390</t>
+  </si>
+  <si>
+    <t>BMZ00391</t>
+  </si>
+  <si>
+    <t>BMZ00392</t>
+  </si>
+  <si>
+    <t>BMZ00393</t>
+  </si>
+  <si>
+    <t>BMZ00394</t>
+  </si>
+  <si>
+    <t>BMZ00395</t>
+  </si>
+  <si>
+    <t>BMZ00396</t>
+  </si>
+  <si>
+    <t>BMZ00397</t>
+  </si>
+  <si>
+    <t>BMZ00398</t>
+  </si>
+  <si>
+    <t>问曰：病有霍乱者何？答曰：呕吐而利，此名霍乱。</t>
+  </si>
+  <si>
+    <t>问曰：病发热，头痛，身疼，恶寒，吐利者，此属何病？答曰：此名霍乱。霍乱自吐下，又利止，复更发热也。</t>
+  </si>
+  <si>
+    <t>伤寒，其脉微涩者，本是霍乱，今是伤寒，却四五日，至阴经上，转入阴，必利；本呕，下利者，不可治也。欲似大便，而反失气，仍不利者，此属阳明也。便必硬，十三日愈。所以然者，经尽故也。下利后，当便鞕，鞕则能食者愈。今反不能食，到后经中，颇能食，复过一经能食，过之一日当愈；不愈者，不属阳明也。</t>
+  </si>
+  <si>
+    <t>恶寒，脉微而复利，利止，亡血也，四逆加人参汤主之。</t>
+  </si>
+  <si>
+    <t>四逆加人参汤</t>
+  </si>
+  <si>
+    <t>霍乱，头痛，发热，身疼痛，热多欲饮水者，五苓散主之；寒多不用水者，理中丸主之。</t>
+  </si>
+  <si>
+    <t>理中丸</t>
+  </si>
+  <si>
+    <t>吐利止而身痛不休者，当消息和解其外，宜桂枝汤小和之。</t>
+  </si>
+  <si>
+    <t>吐利，汗出，发热，恶寒，四肢拘急，手足厥冷者，四逆汤主之。</t>
+  </si>
+  <si>
+    <t>既吐且利，小便复利，而大汗出，下利清谷，内寒外热，脉微欲绝者，四逆汤主之。</t>
+  </si>
+  <si>
+    <t>吐已下断，汗出而厥，四肢拘急不解，脉微欲绝者，通脉四逆加猪胆汤主之。</t>
+  </si>
+  <si>
+    <t>通脉四逆加猪胆汤</t>
+  </si>
+  <si>
+    <t>吐利，发汗，脉平，小烦者，以新虚，不胜谷气故也。</t>
+  </si>
+  <si>
+    <t>辨阴阳易、差后劳复病脉证并治</t>
+  </si>
+  <si>
+    <t>伤寒，阴阳易之为病，其人身体重，少气，少腹里急，或引阴中拘挛，热上冲胸，头重不欲举，眼中生花，膝胫拘急者，烧裈散主之。</t>
+  </si>
+  <si>
+    <t>烧裈散</t>
+  </si>
+  <si>
+    <t>大病差后，劳复者，枳实栀子豉汤主之。</t>
+  </si>
+  <si>
+    <t>枳实栀子豉汤</t>
+  </si>
+  <si>
+    <t>伤寒差以后，更发热，小柴胡汤主之。脉浮者，以汗解之；脉沉实者，以下解之。</t>
+  </si>
+  <si>
+    <t>大病差后，从腰以下有水气者，牡蛎泽泻散主之。</t>
+  </si>
+  <si>
+    <t>牡蛎泽泻散</t>
+  </si>
+  <si>
+    <t>大病差后，喜唾，久不了了，胸上有寒，当以丸药温之，宜理中丸。</t>
+  </si>
+  <si>
+    <t>伤寒解后，虚羸少气，气逆欲吐，竹叶石膏汤主之。</t>
+  </si>
+  <si>
+    <t>竹叶石膏汤</t>
+  </si>
+  <si>
+    <t>病人脉已解，而日暮微烦，以病新差，人强与谷，脾胃气尚弱，不能消谷，故令微烦，损谷则愈。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2562,6 +3237,13 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2606,7 +3288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2623,10 +3305,9 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3033,10 +3714,10 @@
         <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M1">
         <f>COUNTA(C2:C11)</f>
@@ -3052,10 +3733,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3067,10 +3748,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3082,10 +3763,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3097,10 +3778,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3112,10 +3793,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3127,10 +3808,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3142,10 +3823,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3157,10 +3838,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3172,10 +3853,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3187,10 +3868,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -3225,17 +3906,17 @@
         <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G1">
         <f>COUNTA(D2:D2)</f>
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3247,7 +3928,7 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -3289,10 +3970,10 @@
         <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M1">
         <f>COUNTA(C2:C9)</f>
@@ -3308,10 +3989,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3323,10 +4004,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3338,10 +4019,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3353,10 +4034,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3368,10 +4049,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3383,10 +4064,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3398,10 +4079,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3413,10 +4094,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -3451,17 +4132,17 @@
         <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G1">
         <f>COUNTA(D2:D2)</f>
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3473,10 +4154,10 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3488,10 +4169,10 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>
@@ -3505,10 +4186,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,10 +4214,10 @@
         <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="L1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M1">
         <f>COUNTA(D2:D9)</f>
@@ -3552,10 +4233,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3567,10 +4248,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3582,10 +4263,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3597,10 +4278,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3612,10 +4293,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3627,10 +4308,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3642,10 +4323,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3657,25 +4338,25 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f t="shared" ref="A10:A32" si="1">CONCATENATE(C10,"_",D10)</f>
+        <f t="shared" ref="A10:A30" si="1">CONCATENATE(C10,"_",D10)</f>
         <v>BMZ00289_少阴病，恶寒而蜷，时自烦，欲去衣被者，可治。</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -3687,10 +4368,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -3702,10 +4383,10 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3717,10 +4398,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3732,10 +4413,10 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3747,10 +4428,10 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D15" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3762,10 +4443,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D16" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3777,10 +4458,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3792,10 +4473,10 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3807,10 +4488,10 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D19" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3822,10 +4503,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D20" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3837,10 +4518,10 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D21" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3852,10 +4533,10 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D22" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3867,10 +4548,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D23" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3882,106 +4563,340 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D24" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="1"/>
-        <v>BMZ00304_</v>
+        <v>BMZ00304_少阴病，得之一二日，口中和，其背恶寒者，当灸之，附子汤主之。</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>766</v>
+        <v>765</v>
+      </c>
+      <c r="D25" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="1"/>
-        <v>BMZ00305_</v>
+        <v>BMZ00305_少阴病，身体痛，手足寒，骨节痛，脉沉者，附子汤主之。</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>767</v>
+        <v>766</v>
+      </c>
+      <c r="D26" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="1"/>
-        <v>BMZ00306_</v>
+        <v>BMZ00306_少阴病，下利，便脓血者，桃花汤主之。</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>768</v>
+        <v>767</v>
+      </c>
+      <c r="D27" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="1"/>
-        <v>BMZ00307_</v>
+        <v>BMZ00307_少阴病二三日至四五日，腹痛，小便不利，下利不止，便脓血者，桃花汤主之。</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>769</v>
+        <v>768</v>
+      </c>
+      <c r="D28" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="1"/>
-        <v>BMZ00308_</v>
+        <v>BMZ00308_少阴病，下利便脓血者，可刺。</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>770</v>
+        <v>769</v>
+      </c>
+      <c r="D29" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="1"/>
-        <v>BMZ00309_</v>
+        <v>BMZ00309_少阴病，吐利，手足逆冷，烦躁欲死者，吴茱萸汤主之。</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>771</v>
+        <v>770</v>
+      </c>
+      <c r="D30" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f t="shared" si="1"/>
-        <v>BMZ00310_</v>
+        <f>CONCATENATE(C31,"_",D31)</f>
+        <v>BMZ00310_少阴病，下利，咽痛，胸满，心烦，猪肤汤主之。</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>772</v>
+        <v>771</v>
+      </c>
+      <c r="D31" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f t="shared" si="1"/>
-        <v>BMZ00311_</v>
+        <f>CONCATENATE(C32,"_",D32)</f>
+        <v>BMZ00311_少阴病二三日，咽痛者，可与甘草汤。不差，与桔梗汤。</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>773</v>
+        <v>772</v>
+      </c>
+      <c r="D32" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" ref="A33:A46" si="2">CONCATENATE(C33,"_",D33)</f>
+        <v>BMZ00312_少阴病，咽中伤，生疮，不能语言，声不出者，苦酒汤主之。</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>839</v>
+      </c>
+      <c r="D33" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="2"/>
+        <v>BMZ00313_少阴病，咽中痛，半夏散及汤主之。</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>840</v>
+      </c>
+      <c r="D34" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="2"/>
+        <v>BMZ00314_少阴病，下利，白通汤主之。</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>841</v>
+      </c>
+      <c r="D35" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="2"/>
+        <v>BMZ00315_少阴病，下利，脉微者，与白通汤。利不止，厥逆无脉，干呕，烦者，白通加猪胆汁汤主之。服汤，脉暴出者，死；微续者，生。</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>842</v>
+      </c>
+      <c r="D36" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="2"/>
+        <v>BMZ00316_少阴病，二三日不已，至四五日，腹痛，小便不利，四肢沉重，疼痛，自下利者，此为有水气。其人或咳，或小便利，或下利，或呕者，真武汤主之。</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>843</v>
+      </c>
+      <c r="D37" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="2"/>
+        <v>BMZ00317_少阴病，下利清谷，里寒外热，手足厥逆，脉微欲绝，身反不恶寒，其人面色赤，或腹痛，或干呕，或咽痛，或利止脉不出者，通脉四逆汤主之。</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>844</v>
+      </c>
+      <c r="D38" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="2"/>
+        <v>BMZ00318_少阴病，四逆，其人或咳，或悸，或小便不利，或腹中痛，或泄利下重者，四逆散主之。</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>845</v>
+      </c>
+      <c r="D39" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="2"/>
+        <v>BMZ00319_少阴病，下利六七日，咳而呕渴，心烦不得眠者，猪苓汤主之。</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>846</v>
+      </c>
+      <c r="D40" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="2"/>
+        <v>BMZ00320_少阴病，得之二三日，口燥，咽干者，急下之，宜大承气汤。</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>847</v>
+      </c>
+      <c r="D41" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="2"/>
+        <v>BMZ00321_少阴病，自利清水，色纯青，心下必痛，口干燥者，可下之，宜大承气汤。</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>848</v>
+      </c>
+      <c r="D42" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="2"/>
+        <v>BMZ00322_少阴病六七日，腹胀，不大便者，急下之，宜大承气汤。</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>849</v>
+      </c>
+      <c r="D43" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="2"/>
+        <v>BMZ00323_少阴病，脉沉者，急温之，宜四逆汤。</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>850</v>
+      </c>
+      <c r="D44" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="2"/>
+        <v>BMZ00324_少阴病，饮食入口则吐，心中温温欲吐，复不能吐。始得之，手足寒，脉弦迟者，此胸中实，不可下也，当吐之。若膈上有寒饮，干呕者，不可吐也，当温之，宜四逆汤。</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>851</v>
+      </c>
+      <c r="D45" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="2"/>
+        <v>BMZ00325_少阴病，下利，脉微涩，呕而汗出，必数更衣，反少者，当温其上，灸之。</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>852</v>
+      </c>
+      <c r="D46" t="s">
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -3992,10 +4907,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE004E4-09BE-44CC-8E04-0933FFB8A1D5}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4016,17 +4931,17 @@
         <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G1">
         <f>COUNTA(D2:D2)</f>
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4038,10 +4953,10 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4053,10 +4968,10 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4068,178 +4983,235 @@
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="1"/>
-        <v>FJ00089_</v>
+        <v>FJ00089_附子汤</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>586</v>
+        <v>585</v>
+      </c>
+      <c r="D5" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="1"/>
-        <v>FJ00090_</v>
+        <v>FJ00090_桃花汤</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>587</v>
+        <v>586</v>
+      </c>
+      <c r="D6" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="1"/>
-        <v>FJ00091_</v>
+        <v>FJ00091_吴茱萸汤</v>
       </c>
       <c r="B7" t="s">
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>588</v>
+        <v>587</v>
+      </c>
+      <c r="D7" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="1"/>
-        <v>FJ00092_</v>
+        <v>FJ00092_猪肤汤</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>589</v>
+        <v>588</v>
+      </c>
+      <c r="D8" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="1"/>
-        <v>FJ00093_</v>
+        <v>FJ00093_甘草汤</v>
       </c>
       <c r="B9" t="s">
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>590</v>
+        <v>589</v>
+      </c>
+      <c r="D9" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="1"/>
-        <v>FJ00094_</v>
+        <v>FJ00094_桔梗汤</v>
       </c>
       <c r="B10" t="s">
         <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>591</v>
+        <v>590</v>
+      </c>
+      <c r="D10" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="1"/>
-        <v>FJ00095_</v>
+        <v>FJ00095_苦酒汤</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>592</v>
+        <v>591</v>
+      </c>
+      <c r="D11" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="1"/>
-        <v>FJ00096_</v>
+        <v>FJ00096_半夏散及汤</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>593</v>
+        <v>592</v>
+      </c>
+      <c r="D12" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="1"/>
-        <v>FJ00097_</v>
+        <v>FJ00097_白诵汤</v>
       </c>
       <c r="B13" t="s">
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>594</v>
+        <v>593</v>
+      </c>
+      <c r="D13" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
-        <v>FJ00098_</v>
+        <v>FJ00098_白通加猪胆汁汤</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>595</v>
+        <v>594</v>
+      </c>
+      <c r="D14" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
-        <v>FJ00099_</v>
+        <v>FJ00099_真武汤</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>596</v>
+        <v>595</v>
+      </c>
+      <c r="D15" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
-        <v>FJ00100_</v>
+        <v>FJ00100_通脉四逆汤</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+      <c r="D16" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="1"/>
-        <v>FJ00101_</v>
+        <v>FJ00101_四逆散</v>
       </c>
       <c r="B17" t="s">
         <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+      <c r="D17" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="1"/>
-        <v>FJ00102_</v>
+        <v>FJ00102_猪苓汤</v>
       </c>
       <c r="B18" t="s">
         <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>824</v>
+        <v>823</v>
+      </c>
+      <c r="D18" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="str">
+        <f t="shared" ref="A19" si="2">CONCATENATE(C19,"_",D19)</f>
+        <v>FJ00103_四逆汤</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4249,20 +5221,910 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A97E7D-91FD-4A70-8DE6-01E81B773E4D}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A853FAC5-77B5-4ACB-88E7-9F36E0BC50FA}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:M57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>894</v>
+      </c>
+      <c r="L1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M1">
+        <f>COUNTA(D2:D9)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>CONCATENATE(C2,"_",D2)</f>
+        <v>BMZ00326_厥阴之为病，消渴，气上撞心，心中疼热，饥而不欲食，食则吐蛔。下之，利不止。</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A30" si="0">CONCATENATE(C3,"_",D3)</f>
+        <v>BMZ00327_厥阴中风，脉微浮，为欲愈，不浮，为未愈。</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>854</v>
+      </c>
+      <c r="D3" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00328_厥阴病，欲解时，从丑至卯上。</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>855</v>
+      </c>
+      <c r="D4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00329_厥阴病，渴欲饮水者，少少与之愈。</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>856</v>
+      </c>
+      <c r="D5" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00330_诸四逆厥者，不可下之，虚家亦然。</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>857</v>
+      </c>
+      <c r="D6" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00331_伤寒，先厥后发热，而利者必自止，见厥复利。</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>858</v>
+      </c>
+      <c r="D7" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00332_伤寒，始发热六日，厥反九日而利。凡厥利者，当不能食；今反能食者，恐为除中。食以索饼，不发热者，知胃气尚在，必愈。恐暴热来出而复去也。后日脉之，其热续在者，期之旦日夜半愈。所以然者，本发热六日，厥反九日，复发热三日，并前六日，亦为九日，与厥相应，故期之旦日夜半愈。后三日脉之而脉数，其热不罢者，此为热气有余，必发痈脓也。</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>859</v>
+      </c>
+      <c r="D8" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00333_伤寒，脉迟六七日，而反与黄芩汤彻其热。脉迟为寒，今与黄芩汤，复除其热，腹中应冷，当不能食，今反能食，此名除中，必死。</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>860</v>
+      </c>
+      <c r="D9" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00334_伤寒，先厥后发热，下利必自止。而反汗出，咽中痛者，其喉为痹。发热无汗，而利必自止；若不止，必便脓血。便脓血者，其喉不痹。</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>861</v>
+      </c>
+      <c r="D10" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00335_伤寒一二日至四五日，厥者必发热。前热者后必厥。厥深者，热亦深；厥微者，热亦微。厥应下之，而反发汗者，必口伤烂赤。</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>862</v>
+      </c>
+      <c r="D11" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00336_伤寒，病厥五日，热亦五日。设六日当复厥，不厥者，自愈。厥终不过五日，以热五日，故知自愈。</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>863</v>
+      </c>
+      <c r="D12" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00337_凡厥者，阴阳气不相顺接，便为厥。厥者，手足逆冷者是也。</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>864</v>
+      </c>
+      <c r="D13" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00338_伤寒，脉微而厥，至七八日肤冷，其人躁无暂安时者，此为脏厥，非蛔厥也。蛔厥者，其人当吐蛔。今病者静，而复时烦者，此为脏寒。蛔上入其膈，故烦，须臾复止；得食而呕，又烦者，蛔闻食臭出，其人常自吐蛔。蛔厥者，乌梅丸主之。又主久利。</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>895</v>
+      </c>
+      <c r="D14" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00339_伤寒，热少微厥，指头寒，嘿嘿不欲食，烦躁。数日，小便利，色白者，此热除也。欲得食，其病为愈；若厥而呕，胸胁烦满者，其后必便血。</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>896</v>
+      </c>
+      <c r="D15" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00340_病者手足厥冷，言我不结胸，小腹满，按之痛者，此冷结在膀胱关元也。</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>897</v>
+      </c>
+      <c r="D16" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00341_伤寒，发热四日，厥反三日，复热四日，厥少热多者，其病当愈。四日至七日，热不除者，必便脓血。</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>898</v>
+      </c>
+      <c r="D17" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00342_伤寒，厥四日，热反三日，复厥五日，其病为进。寒多热少，阳气退，故为进也。</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>899</v>
+      </c>
+      <c r="D18" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00343_伤寒六七日，脉微，手足厥冷，烦躁，灸厥阴，厥不还者，死。</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>900</v>
+      </c>
+      <c r="D19" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00344_伤寒，发热，下利，厥逆，躁不得卧者，死。</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>901</v>
+      </c>
+      <c r="D20" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00345_伤寒，发热，下利至甚，厥不止者，死。</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>902</v>
+      </c>
+      <c r="D21" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00346_伤寒六七日，不利，便发热而利，其人汗出不止者，死。有阴无阳故也。</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>903</v>
+      </c>
+      <c r="D22" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00347_伤寒五六日，不结胸，腹濡，脉虚，复厥者，不可下，此亡血，下之死</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>904</v>
+      </c>
+      <c r="D23" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00348_发热而厥，七日下利者，为难治。</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>905</v>
+      </c>
+      <c r="D24" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00349_伤寒，脉促，手足厥逆，可灸之。</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>906</v>
+      </c>
+      <c r="D25" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00350_伤寒，脉滑而厥者，里有热，白虎汤主之。</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>907</v>
+      </c>
+      <c r="D26" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00351_手足厥寒，脉细欲绝者，当归四逆汤主之。</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>908</v>
+      </c>
+      <c r="D27" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00352_若其人内有久寒者，宜当归四逆加吴茱萸生姜汤。</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>909</v>
+      </c>
+      <c r="D28" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00353_大汗出，热不去，内拘急，四肢疼，又下利厥逆而恶寒者，四逆汤主之。</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>910</v>
+      </c>
+      <c r="D29" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00354_大汗，若大下利而厥冷者，四逆汤主之。</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>911</v>
+      </c>
+      <c r="D30" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>CONCATENATE(C31,"_",D31)</f>
+        <v>BMZ00355_病人手足厥冷，脉乍紧者，邪结在胸中，心下满而烦，饥不能食者，病在胸中，当须吐之，宜瓜蒂散。</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>912</v>
+      </c>
+      <c r="D31" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>CONCATENATE(C32,"_",D32)</f>
+        <v>BMZ00356_伤寒，厥而心下悸，宜先治水，当服茯苓甘草汤，却治其厥。不尔，水渍入胃，必作利也。</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>913</v>
+      </c>
+      <c r="D32" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" ref="A33:A46" si="1">CONCATENATE(C33,"_",D33)</f>
+        <v>BMZ00357_伤寒六七日，大下后，寸脉沉而迟，手足厥逆，下部脉不至，喉咽不利，唾脓血，泄利不止者，为难治，麻黄升麻汤主之。</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>914</v>
+      </c>
+      <c r="D33" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="1"/>
+        <v>BMZ00358_伤寒四五日，腹中痛，若转气下趣少腹者，此欲自利也。</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>915</v>
+      </c>
+      <c r="D34" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="1"/>
+        <v>BMZ00359_伤寒，本自寒下，医复吐下之，寒格，更逆吐下，若食入口即吐，干姜黄芩黄连人参汤主之。</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>916</v>
+      </c>
+      <c r="D35" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="1"/>
+        <v>BMZ00360_下利，有微热而渴，脉弱者，今自愈。</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>917</v>
+      </c>
+      <c r="D36" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="1"/>
+        <v>BMZ00361_下利，脉数，有微热汗出，今自愈。设复紧，为未解。</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>918</v>
+      </c>
+      <c r="D37" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="1"/>
+        <v>BMZ00362_下利，手足厥冷，无脉者，灸之不温，若脉不还，反微喘者，死。少阴负跌阳者，为顺也。</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>919</v>
+      </c>
+      <c r="D38" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="1"/>
+        <v>BMZ00363_下利，寸脉反浮数，尺中自涩者，必清脓血。</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>920</v>
+      </c>
+      <c r="D39" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="1"/>
+        <v>BMZ00364_下利清谷，不可攻表，汗出必胀满。</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>921</v>
+      </c>
+      <c r="D40" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="1"/>
+        <v>BMZ00365_下利，脉沉弦者，下重也；脉大者，为未止；脉微弱数者，为欲自止，虽发热，不死。</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>922</v>
+      </c>
+      <c r="D41" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="1"/>
+        <v>BMZ00366_下利，脉沉而迟，其人面少赤，身有微热，下利清谷者，必郁冒，汗出而解，病人必微厥。所以然者，其面戴阳，下虚故也。</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>923</v>
+      </c>
+      <c r="D42" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="1"/>
+        <v>BMZ00367_下利，脉数而渴者，今自愈。设不差，必清脓血，以有热故也。</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>924</v>
+      </c>
+      <c r="D43" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="1"/>
+        <v>BMZ00368_下利后，脉绝，手足厥冷，晬时脉还，手足温者，生；脉不还者，死。</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>925</v>
+      </c>
+      <c r="D44" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="1"/>
+        <v>BMZ00369_伤寒，下利，日十余行，脉反实者，死。</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>926</v>
+      </c>
+      <c r="D45" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="1"/>
+        <v>BMZ00370_下利清谷，里寒外热，汗出而厥者，通脉四逆汤主之。</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>927</v>
+      </c>
+      <c r="D46" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" ref="A47:A50" si="2">CONCATENATE(C47,"_",D47)</f>
+        <v>BMZ00371_热利下重者，白头翁汤主之。</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>984</v>
+      </c>
+      <c r="D47" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="2"/>
+        <v>BMZ00372_下利，腹胀满，身体疼痛者，先温其里，乃攻其表，温里宜四逆汤，攻表宜桂枝汤。</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>985</v>
+      </c>
+      <c r="D48" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="2"/>
+        <v>BMZ00373_下利，欲饮水者，以有热故也，白头翁汤主之。</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>986</v>
+      </c>
+      <c r="D49" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="2"/>
+        <v>BMZ00374_下利，谵语者，有燥屎也，宜小承气汤。</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>987</v>
+      </c>
+      <c r="D50" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" ref="A51:A57" si="3">CONCATENATE(C51,"_",D51)</f>
+        <v>BMZ00375_下利后，更烦，按之心下濡者，为虚烦也，宜栀子豉汤。</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>999</v>
+      </c>
+      <c r="D51" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="3"/>
+        <v>BMZ00376_呕家，有痈脓者，不可治呕，脓尽自愈。</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D52" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="3"/>
+        <v>BMZ00377_呕而脉弱，小便复利，身有微热，见厥者难治，四逆汤主之。</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D53" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="3"/>
+        <v>BMZ00378_干呕，吐涎沫，头痛者，吴茱萸汤主之。</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D54" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="3"/>
+        <v>BMZ00379_呕而发热者，小柴胡汤主之。</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D55" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="3"/>
+        <v>BMZ00380_伤寒，大吐、大下之，极虚，复极汗者，其人外气佛郁，复与之水，以发其汗，因得哕，所以然者，胃中寒冷故也。</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D56" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="3"/>
+        <v>BMZ00381_伤寒，哕而腹满，视其前后，知何部不利，利之即愈。</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D57" t="s">
+        <v>998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A83ED98-C4EB-44FE-89D7-1448BEC30667}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4273,59 +6135,330 @@
         <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="F1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1">
+        <f>COUNTA(D2:D2)</f>
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>CONCATENATE(C2,"_",病脉证set1!D25)</f>
-        <v>FJ0014_服桂枝汤，大汗出，脉洪大者，与桂枝汤，如前法。若形似疟，一日再发者，汗出必解，宜桂枝二麻黄一汤。</v>
+        <f t="shared" ref="A2:A7" si="0">CONCATENATE(C2,"_",D2)</f>
+        <v>FJ00104_乌梅丸</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+      <c r="D2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>CONCATENATE(C3,"_",病脉证set1!D26)</f>
-        <v>FJ0015_服桂枝汤，大汗出后，大烦渴不解，脉洪大者，白虎加人参汤主之。</v>
+        <f t="shared" si="0"/>
+        <v>FJ00105_当归四逆汤</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>80</v>
+        <v>884</v>
+      </c>
+      <c r="D3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ00106_当归四逆加吴茱萸生姜汤</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>885</v>
+      </c>
+      <c r="D4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ00107_麻黄升麻汤</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>886</v>
+      </c>
+      <c r="D5" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ00108_干姜黄芩黄连人参汤</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>887</v>
+      </c>
+      <c r="D6" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ00109_白头翁汤</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>888</v>
+      </c>
+      <c r="D7" t="s">
+        <v>988</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315F2468-8760-40F5-978F-DC0807A1CD7B}">
-  <dimension ref="A1:G27"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E582071-298E-414C-AECF-4B7CB7CB4796}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="A12" sqref="A12:XFD57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>894</v>
+      </c>
+      <c r="L1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M1">
+        <f>COUNTA(D2:D9)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>CONCATENATE(C2,"_",D2)</f>
+        <v>BMZ00382_问曰：病有霍乱者何？答曰：呕吐而利，此名霍乱。</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A11" si="0">CONCATENATE(C3,"_",D3)</f>
+        <v>BMZ00383_问曰：病发热，头痛，身疼，恶寒，吐利者，此属何病？答曰：此名霍乱。霍乱自吐下，又利止，复更发热也。</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00384_伤寒，其脉微涩者，本是霍乱，今是伤寒，却四五日，至阴经上，转入阴，必利；本呕，下利者，不可治也。欲似大便，而反失气，仍不利者，此属阳明也。便必硬，十三日愈。所以然者，经尽故也。下利后，当便鞕，鞕则能食者愈。今反不能食，到后经中，颇能食，复过一经能食，过之一日当愈；不愈者，不属阳明也。</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00385_恶寒，脉微而复利，利止，亡血也，四逆加人参汤主之。</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00386_霍乱，头痛，发热，身疼痛，热多欲饮水者，五苓散主之；寒多不用水者，理中丸主之。</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00387_吐利止而身痛不休者，当消息和解其外，宜桂枝汤小和之。</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00388_吐利，汗出，发热，恶寒，四肢拘急，手足厥冷者，四逆汤主之。</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00389_既吐且利，小便复利，而大汗出，下利清谷，内寒外热，脉微欲绝者，四逆汤主之。</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00390_吐已下断，汗出而厥，四肢拘急不解，脉微欲绝者，通脉四逆加猪胆汤主之。</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00391_吐利，发汗，脉平，小烦者，以新虚，不胜谷气故也。</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C546C21-B671-468E-A88B-DC1DC7C9EE5D}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4336,430 +6469,62 @@
         <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="F1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1">
+        <f>COUNTA(D2:D2)</f>
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>CONCATENATE(C2,"_",D2)</f>
-        <v>FJ0001_桂枝汤</v>
+        <f t="shared" ref="A2:A4" si="0">CONCATENATE(C2,"_",D2)</f>
+        <v>FJ00110_四逆加人参汤</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>889</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A14" si="0">CONCATENATE(C3,"_",D3)</f>
-        <v>FJ0002_桂枝加葛根汤</v>
+        <f t="shared" si="0"/>
+        <v>FJ00111_理中丸</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>890</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>FJ0003_桂枝汤加厚朴杏子</v>
-      </c>
-      <c r="B4" s="9" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ00112_通脉四逆加猪胆汤</v>
+      </c>
+      <c r="B4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>FJ0004_桂枝加附子汤</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>FJ0005_桂枝去芍药汤</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>FJ0006_桂枝去芍药加附子汤</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>FJ0007_桂枝麻黄各半汤</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f t="shared" si="0"/>
-        <v>FJ0008_桂枝二麻黄—汤</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f t="shared" si="0"/>
-        <v>FJ0009_白虎加人参汤</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f t="shared" si="0"/>
-        <v>FJ0010_桂枝二越婢一汤</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f t="shared" si="0"/>
-        <v>FJ0011_桂枝去桂加茯苓白术汤</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f t="shared" si="0"/>
-        <v>FJ0012_甘草干姜汤</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>FJ0013_芍药甘草汤</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>CONCATENATE(C15,"_",D15)</f>
-        <v>FJ0001_桂枝汤</v>
-      </c>
-      <c r="B15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f t="shared" ref="A16:A27" si="1">CONCATENATE(C16,"_",D16)</f>
-        <v>FJ0002_桂枝加葛根汤</v>
-      </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f t="shared" si="1"/>
-        <v>FJ0003_桂枝汤加厚朴杏子</v>
-      </c>
-      <c r="B17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f t="shared" si="1"/>
-        <v>FJ0004_桂枝加附子汤</v>
-      </c>
-      <c r="B18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f t="shared" si="1"/>
-        <v>FJ0005_桂枝去芍药汤</v>
-      </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f t="shared" si="1"/>
-        <v>FJ0006_桂枝去芍药加附子汤</v>
-      </c>
-      <c r="B20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f t="shared" si="1"/>
-        <v>FJ0007_桂枝麻黄各半汤</v>
-      </c>
-      <c r="B21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f t="shared" si="1"/>
-        <v>FJ0008_桂枝二麻黄—汤</v>
-      </c>
-      <c r="B22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" si="1"/>
-        <v>FJ0009_白虎加人参汤</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f t="shared" si="1"/>
-        <v>FJ0010_桂枝二越婢一汤</v>
-      </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" si="1"/>
-        <v>FJ0011_桂枝去桂加茯苓白术汤</v>
-      </c>
-      <c r="B25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f t="shared" si="1"/>
-        <v>FJ0012_甘草干姜汤</v>
-      </c>
-      <c r="B26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f t="shared" si="1"/>
-        <v>FJ0013_芍药甘草汤</v>
-      </c>
-      <c r="B27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" t="s">
-        <v>78</v>
+      <c r="C4" t="s">
+        <v>928</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
@@ -4768,7 +6533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -5672,6 +7437,790 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10653E9D-55C6-4FF5-B5FB-6C79BC13E23A}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M1">
+        <f>COUNTA(D2:D8)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>CONCATENATE(C2,"_",D2)</f>
+        <v>BMZ00392_伤寒，阴阳易之为病，其人身体重，少气，少腹里急，或引阴中拘挛，热上冲胸，头重不欲举，眼中生花，膝胫拘急者，烧裈散主之。</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A8" si="0">CONCATENATE(C3,"_",D3)</f>
+        <v>BMZ00393_大病差后，劳复者，枳实栀子豉汤主之。</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00394_伤寒差以后，更发热，小柴胡汤主之。脉浮者，以汗解之；脉沉实者，以下解之。</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00395_大病差后，从腰以下有水气者，牡蛎泽泻散主之。</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00396_大病差后，喜唾，久不了了，胸上有寒，当以丸药温之，宜理中丸。</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00397_伤寒解后，虚羸少气，气逆欲吐，竹叶石膏汤主之。</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>BMZ00398_病人脉已解，而日暮微烦，以病新差，人强与谷，脾胃气尚弱，不能消谷，故令微烦，损谷则愈。</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEC81B6-1FDC-46EE-A94E-327ED11FA581}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1">
+        <f>COUNTA(D2:D2)</f>
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A4" si="0">CONCATENATE(C2,"_",D2)</f>
+        <v>FJ00113_烧裈散</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>929</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ00114_枳实栀子豉汤</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>930</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ00115_牡蛎泽泻散</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>931</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" ref="A5" si="1">CONCATENATE(C5,"_",D5)</f>
+        <v>FJ00116_竹叶石膏汤</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>932</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A97E7D-91FD-4A70-8DE6-01E81B773E4D}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>CONCATENATE(C2,"_",病脉证set1!D25)</f>
+        <v>FJ0014_服桂枝汤，大汗出，脉洪大者，与桂枝汤，如前法。若形似疟，一日再发者，汗出必解，宜桂枝二麻黄一汤。</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>CONCATENATE(C3,"_",病脉证set1!D26)</f>
+        <v>FJ0015_服桂枝汤，大汗出后，大烦渴不解，脉洪大者，白虎加人参汤主之。</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315F2468-8760-40F5-978F-DC0807A1CD7B}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>CONCATENATE(C2,"_",D2)</f>
+        <v>FJ0001_桂枝汤</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A14" si="0">CONCATENATE(C3,"_",D3)</f>
+        <v>FJ0002_桂枝加葛根汤</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ0003_桂枝汤加厚朴杏子</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ0003_桂枝加附子汤</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ0004_桂枝去芍药汤</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ0005_桂枝去芍药加附子汤</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ0006_桂枝麻黄各半汤</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ0007_桂枝二麻黄—汤</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ0008_白虎加人参汤</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ0009_桂枝二越婢一汤</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ0010_桂枝去桂加茯苓白术汤</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ0011_甘草干姜汤</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>FJ0012_芍药甘草汤</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>CONCATENATE(C15,"_",D15)</f>
+        <v>FJ0001_桂枝汤</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" ref="A16:A27" si="1">CONCATENATE(C16,"_",D16)</f>
+        <v>FJ0002_桂枝加葛根汤</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="1"/>
+        <v>FJ0003_桂枝汤加厚朴杏子</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="1"/>
+        <v>FJ0003_桂枝加附子汤</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="1"/>
+        <v>FJ0004_桂枝去芍药汤</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="1"/>
+        <v>FJ0005_桂枝去芍药加附子汤</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="1"/>
+        <v>FJ0006_桂枝麻黄各半汤</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="1"/>
+        <v>FJ0007_桂枝二麻黄—汤</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="1"/>
+        <v>FJ0008_白虎加人参汤</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="1"/>
+        <v>FJ0009_桂枝二越婢一汤</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="1"/>
+        <v>FJ0010_桂枝去桂加茯苓白术汤</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="1"/>
+        <v>FJ0011_甘草干姜汤</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="1"/>
+        <v>FJ0012_芍药甘草汤</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="10" t="s">
+        <v>893</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5709,7 +8258,7 @@
         <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M1">
         <f>COUNTA(C2:C98)</f>
@@ -5725,10 +8274,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5740,10 +8289,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5755,10 +8304,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5770,10 +8319,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5785,10 +8334,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5800,10 +8349,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5815,10 +8364,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5830,10 +8379,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5845,10 +8394,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5860,10 +8409,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5875,10 +8424,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5890,10 +8439,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5905,10 +8454,10 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5920,10 +8469,10 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5935,10 +8484,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5950,10 +8499,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5965,10 +8514,10 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5980,10 +8529,10 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5995,10 +8544,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6010,10 +8559,10 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6025,10 +8574,10 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6040,10 +8589,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6055,10 +8604,10 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6070,10 +8619,10 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6085,10 +8634,10 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6100,10 +8649,10 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6115,10 +8664,10 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6130,10 +8679,10 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6145,10 +8694,10 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6160,10 +8709,10 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6175,10 +8724,10 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6190,10 +8739,10 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -6205,10 +8754,10 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -6220,10 +8769,10 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -6235,10 +8784,10 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6250,10 +8799,10 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -6265,10 +8814,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -6280,10 +8829,10 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -6295,10 +8844,10 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -6310,10 +8859,10 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -6325,10 +8874,10 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -6340,10 +8889,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -6355,10 +8904,10 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -6370,10 +8919,10 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -6385,10 +8934,10 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -6400,10 +8949,10 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -6415,10 +8964,10 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -6430,10 +8979,10 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6445,10 +8994,10 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6460,10 +9009,10 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6475,10 +9024,10 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6490,10 +9039,10 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6505,10 +9054,10 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -6520,10 +9069,10 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -6535,10 +9084,10 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -6550,10 +9099,10 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -6565,10 +9114,10 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -6580,10 +9129,10 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -6595,10 +9144,10 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -6610,10 +9159,10 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -6625,10 +9174,10 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -6640,10 +9189,10 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -6655,10 +9204,10 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -6670,10 +9219,10 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -6685,10 +9234,10 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -6700,10 +9249,10 @@
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D67" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -6715,10 +9264,10 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -6730,10 +9279,10 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D69" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -6745,10 +9294,10 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -6760,10 +9309,10 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -6775,10 +9324,10 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D72" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -6790,10 +9339,10 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D73" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -6805,10 +9354,10 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -6820,10 +9369,10 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D75" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -6835,10 +9384,10 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -6850,10 +9399,10 @@
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -6865,10 +9414,10 @@
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -6880,10 +9429,10 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D79" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -6895,10 +9444,10 @@
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>244</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>258</v>
+        <v>243</v>
+      </c>
+      <c r="D80" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -6910,10 +9459,10 @@
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D81" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -6925,10 +9474,10 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D82" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -6940,10 +9489,10 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -6955,10 +9504,10 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -6970,10 +9519,10 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D85" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -6985,10 +9534,10 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -7000,10 +9549,10 @@
         <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D87" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -7015,10 +9564,10 @@
         <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -7030,10 +9579,10 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D89" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -7045,10 +9594,10 @@
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D90" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -7060,10 +9609,10 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D91" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -7075,10 +9624,10 @@
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -7090,10 +9639,10 @@
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -7105,10 +9654,10 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -7120,10 +9669,10 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D95" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -7135,10 +9684,10 @@
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -7150,10 +9699,10 @@
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D97" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -7165,10 +9714,10 @@
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -7203,10 +9752,10 @@
         <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G1">
         <f>COUNTA(D2:D36)</f>
@@ -7222,10 +9771,10 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7237,10 +9786,10 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7252,10 +9801,10 @@
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7267,10 +9816,10 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7282,10 +9831,10 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7297,10 +9846,10 @@
         <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7312,10 +9861,10 @@
         <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7327,10 +9876,10 @@
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -7342,10 +9891,10 @@
         <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -7357,10 +9906,10 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -7372,10 +9921,10 @@
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -7387,10 +9936,10 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -7402,10 +9951,10 @@
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -7417,10 +9966,10 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -7432,10 +9981,10 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7447,10 +9996,10 @@
         <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7462,10 +10011,10 @@
         <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -7477,10 +10026,10 @@
         <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7492,10 +10041,10 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -7507,10 +10056,10 @@
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7522,10 +10071,10 @@
         <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -7537,10 +10086,10 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7552,10 +10101,10 @@
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -7567,10 +10116,10 @@
         <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -7582,10 +10131,10 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -7597,10 +10146,10 @@
         <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -7612,10 +10161,10 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -7627,10 +10176,10 @@
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -7642,10 +10191,10 @@
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -7657,10 +10206,10 @@
         <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -7672,10 +10221,10 @@
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -7687,10 +10236,10 @@
         <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -7702,10 +10251,10 @@
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -7717,10 +10266,10 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -7732,10 +10281,10 @@
         <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -7777,7 +10326,7 @@
         <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M1">
         <f>COUNTA(C2:C52)</f>
@@ -7793,10 +10342,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7808,10 +10357,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7823,10 +10372,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7838,10 +10387,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7853,10 +10402,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7868,10 +10417,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7883,10 +10432,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7898,10 +10447,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7913,10 +10462,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7928,10 +10477,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7943,10 +10492,10 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7958,10 +10507,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7973,10 +10522,10 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7988,10 +10537,10 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8003,10 +10552,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8018,10 +10567,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8033,10 +10582,10 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8048,10 +10597,10 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8063,10 +10612,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8078,10 +10627,10 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8093,10 +10642,10 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8108,10 +10657,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D23" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8123,10 +10672,10 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D24" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8138,10 +10687,10 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D25" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8153,10 +10702,10 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D26" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8168,10 +10717,10 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8183,10 +10732,10 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D28" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -8198,10 +10747,10 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -8213,10 +10762,10 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -8228,10 +10777,10 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -8243,10 +10792,10 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8258,10 +10807,10 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -8273,10 +10822,10 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -8288,10 +10837,10 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -8303,10 +10852,10 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D36" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -8318,10 +10867,10 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -8333,10 +10882,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -8348,10 +10897,10 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D39" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -8363,10 +10912,10 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -8378,10 +10927,10 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D41" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -8393,10 +10942,10 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D42" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -8408,10 +10957,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D43" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -8423,10 +10972,10 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D44" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -8438,10 +10987,10 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -8453,10 +11002,10 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D46" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -8468,10 +11017,10 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D47" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -8483,10 +11032,10 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D48" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -8498,10 +11047,10 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D49" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -8513,10 +11062,10 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -8528,10 +11077,10 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D51" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8543,10 +11092,10 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D52" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -8581,10 +11130,10 @@
         <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G1">
         <f>COUNTA(D2:D27)</f>
@@ -8600,10 +11149,10 @@
         <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8615,10 +11164,10 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8630,10 +11179,10 @@
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8645,10 +11194,10 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8660,10 +11209,10 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8675,10 +11224,10 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8690,10 +11239,10 @@
         <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8705,10 +11254,10 @@
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -8720,10 +11269,10 @@
         <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8735,10 +11284,10 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8750,10 +11299,10 @@
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -8765,10 +11314,10 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -8780,10 +11329,10 @@
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -8795,10 +11344,10 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -8810,10 +11359,10 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8825,10 +11374,10 @@
         <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -8840,10 +11389,10 @@
         <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D18" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8855,7 +11404,7 @@
         <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D19" t="s">
         <v>71</v>
@@ -8870,10 +11419,10 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8885,10 +11434,10 @@
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8900,10 +11449,10 @@
         <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -8915,10 +11464,10 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D23" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -8930,10 +11479,10 @@
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D24" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -8945,10 +11494,10 @@
         <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -8960,10 +11509,10 @@
         <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -8975,10 +11524,10 @@
         <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D27" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -9020,10 +11569,10 @@
         <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M1">
         <f>COUNTA(C2:C52)</f>
@@ -9039,10 +11588,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9054,10 +11603,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9069,10 +11618,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9084,10 +11633,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9099,10 +11648,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9114,10 +11663,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9129,10 +11678,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9144,10 +11693,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9159,10 +11708,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9174,10 +11723,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9189,10 +11738,10 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9204,10 +11753,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D13" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9219,10 +11768,10 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9234,10 +11783,10 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9249,10 +11798,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9264,10 +11813,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9279,10 +11828,10 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9294,10 +11843,10 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9309,10 +11858,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9324,10 +11873,10 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9339,10 +11888,10 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9354,10 +11903,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9369,10 +11918,10 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9384,10 +11933,10 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9399,10 +11948,10 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D26" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9414,10 +11963,10 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D27" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9429,10 +11978,10 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -9444,10 +11993,10 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D29" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -9459,10 +12008,10 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D30" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -9474,10 +12023,10 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D31" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -9489,10 +12038,10 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -9504,10 +12053,10 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D33" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9519,10 +12068,10 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D34" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -9534,10 +12083,10 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -9549,10 +12098,10 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D36" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -9564,10 +12113,10 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -9579,10 +12128,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -9594,10 +12143,10 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D39" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -9609,10 +12158,10 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D40" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -9624,10 +12173,10 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D41" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -9639,10 +12188,10 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D42" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -9654,10 +12203,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -9669,10 +12218,10 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D44" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -9684,10 +12233,10 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D45" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -9699,10 +12248,10 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -9714,10 +12263,10 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -9729,10 +12278,10 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D48" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -9744,10 +12293,10 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D49" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -9759,10 +12308,10 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D50" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -9774,10 +12323,10 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D51" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -9789,10 +12338,10 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D52" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -9804,10 +12353,10 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D53" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -9819,10 +12368,10 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D54" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -9834,10 +12383,10 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D55" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -9849,10 +12398,10 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D56" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -9864,10 +12413,10 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D57" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -9879,10 +12428,10 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D58" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -9894,10 +12443,10 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D59" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -9909,10 +12458,10 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D60" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -9924,10 +12473,10 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D61" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -9939,10 +12488,10 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D62" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -9954,10 +12503,10 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D63" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -9969,10 +12518,10 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D64" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -9984,10 +12533,10 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D65" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -9999,10 +12548,10 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D66" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -10014,10 +12563,10 @@
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D67" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -10029,10 +12578,10 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D68" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -10044,10 +12593,10 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D69" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -10059,10 +12608,10 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D70" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -10074,10 +12623,10 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D71" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -10089,10 +12638,10 @@
         <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D72" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -10104,10 +12653,10 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D73" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -10119,10 +12668,10 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D74" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -10134,10 +12683,10 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D75" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -10149,10 +12698,10 @@
         <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D76" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -10164,10 +12713,10 @@
         <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D77" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -10179,10 +12728,10 @@
         <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D78" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -10194,10 +12743,10 @@
         <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D79" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -10209,10 +12758,10 @@
         <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D80" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -10224,10 +12773,10 @@
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D81" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -10239,10 +12788,10 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D82" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -10254,10 +12803,10 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D83" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -10269,10 +12818,10 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D84" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -10284,10 +12833,10 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D85" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
   </sheetData>
@@ -10322,17 +12871,17 @@
         <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G1">
         <f>COUNTA(D2:D11)</f>
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -10344,10 +12893,10 @@
         <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -10359,10 +12908,10 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -10374,10 +12923,10 @@
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -10389,10 +12938,10 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -10404,10 +12953,10 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -10419,10 +12968,10 @@
         <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -10434,10 +12983,10 @@
         <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10449,10 +12998,10 @@
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -10464,10 +13013,10 @@
         <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -10479,10 +13028,10 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/Chinese_Medicine/CM_Ref/伤寒杂病论/伤寒杂病论-病脉证-方剂-Axiom-Bulk-Create.xlsx
+++ b/Chinese_Medicine/CM_Ref/伤寒杂病论/伤寒杂病论-病脉证-方剂-Axiom-Bulk-Create.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Chinese_Culture\Chinese_Medicine\CM_Ref\伤寒杂病论\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC43C9D-AE53-481C-A8B1-A6EAFF321AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A383168-CBEA-412A-B9CC-79D704F5F37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="768" firstSheet="8" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="768" firstSheet="7" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="病脉证001" sheetId="2" r:id="rId1"/>
@@ -3616,7 +3616,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4910,7 +4910,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6540,8 +6540,8 @@
   </sheetPr>
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7448,8 +7448,8 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7599,7 +7599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEC81B6-1FDC-46EE-A94E-327ED11FA581}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:C5"/>
     </sheetView>
   </sheetViews>
@@ -8233,7 +8233,7 @@
   <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9731,7 +9731,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11543,7 +11543,7 @@
   </sheetPr>
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
@@ -12850,7 +12850,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
